--- a/biology/Botanique/Oncidium/Oncidium.xlsx
+++ b/biology/Botanique/Oncidium/Oncidium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oncidium est un genre d'orchidées originaire d'Amérique tropicale (de l'Argentine jusqu'à la Floride) de dimensions très variables selon l'espèce. Les espèces du genre sont cultivées et vendues pour leurs jolies fleurs jaunes tachetées de marron dans la forme la plus courante. Les hybrides horticoles présentent souvent un labelle bien développé.
 Ce genre a été créé en 1800 par le botaniste suédois Olof Peter Swartz (1760-1818). En 2009, les botanistes britanniques Mark Wayne Chase et Norris Hagan Williams on révisé la classification de nombreuses espèces, recombinées notamment dans le genre Gomesa.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (17 février 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (17 février 2017) :
 Oncidium abortivoides M.W.Chase &amp; N.H.Williams (2008)
 Oncidium abortivum Rchb.f. (1850)
 Oncidium abruptum Linden &amp; Rchb.f. ex Kraenzl. (1922)
@@ -898,25 +912,310 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Température
-Se contente des températures d'appartement, avec une préférence pour les températures un peu fraîches (18-20). Pour la faire fleurir, il ne faut pas hésiter à lui offrir une différence de température de 5 degrés entre le jour et la nuit pendant un mois.
-Lumière
-Les oncidium demandent une lumière vive, sans soleil direct aux heures chaudes. Un signe de bon éclairage est la couleur des feuilles qui doit être vert-jaune. 
-Eau
-Non calcaire de préférence et sans chlore (penser aux cartouches filtrantes si votre eau du robinet est trop calcaire).
-Arrosages
-Modérés. Il faut laisser sécher le compost un peu entre deux arrosages. Les racines apprécient les composts très bien drainés. Diminuer les arrosages quand les nouveaux pseudo-bulbes sont matures. Certaines variétés d'oncidium apprécient que leurs racines sèchent rapidement. Elles conviennent alors particulièrement à la culture sur plaque si leur développement le permet.
-Humidité
-Apprécient les vaporisations.
+          <t>Température</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se contente des températures d'appartement, avec une préférence pour les températures un peu fraîches (18-20). Pour la faire fleurir, il ne faut pas hésiter à lui offrir une différence de température de 5 degrés entre le jour et la nuit pendant un mois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Oncidium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oncidium</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Lumière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les oncidium demandent une lumière vive, sans soleil direct aux heures chaudes. Un signe de bon éclairage est la couleur des feuilles qui doit être vert-jaune. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Oncidium</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oncidium</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Eau</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Non calcaire de préférence et sans chlore (penser aux cartouches filtrantes si votre eau du robinet est trop calcaire).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Oncidium</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oncidium</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Arrosages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Modérés. Il faut laisser sécher le compost un peu entre deux arrosages. Les racines apprécient les composts très bien drainés. Diminuer les arrosages quand les nouveaux pseudo-bulbes sont matures. Certaines variétés d'oncidium apprécient que leurs racines sèchent rapidement. Elles conviennent alors particulièrement à la culture sur plaque si leur développement le permet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Oncidium</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oncidium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Humidité</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apprécient les vaporisations.
 Il faut savoir que cette plante recherche avant tout le soleil
-Rempotages
-Normalement à la fin de l'hiver ou au printemps, après floraison. Petits pots bien tolérés. Utiliser de préférence un pot non poreux (pas de pot en terre cuite), afin de ne pas concentrer les sels minéraux. Sinon, il est recommandé de rincer le compost à l'eau claire de temps en temps. Après le rempotage, attendez deux semaines avant de reprendre le rythme normal des arrosages; mais bassinez la surface du compost et vaporisez l'envers des feuilles. 
-Substrat conseillé
-Granulométrie fine à moyenne, à base d'écorce de pin, d'argile expansée, charbon de bois, polystyrène.
-Apports d'engrais
-Ils sont nécessaires pour obtenir une belle floraison et se font au rythme d'un arrosage sur deux toute l'année avec un engrais équilibré. Vous pouvez donner un engrais de croissance (riche en azote) lorsque les nouveaux pseudo-bulbes se développent, jusqu'à ce que ceux-ci aient atteint la moitié de leur taille finale, et donner ensuite un engrais de floraison (riche en phosphore et potassium).
-Remarques
-Ne jamais couper les hampes florales, elles peuvent fleurir successivement de nombreuses années.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Oncidium</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oncidium</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Rempotages</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Normalement à la fin de l'hiver ou au printemps, après floraison. Petits pots bien tolérés. Utiliser de préférence un pot non poreux (pas de pot en terre cuite), afin de ne pas concentrer les sels minéraux. Sinon, il est recommandé de rincer le compost à l'eau claire de temps en temps. Après le rempotage, attendez deux semaines avant de reprendre le rythme normal des arrosages; mais bassinez la surface du compost et vaporisez l'envers des feuilles. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Oncidium</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oncidium</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Substrat conseillé</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Granulométrie fine à moyenne, à base d'écorce de pin, d'argile expansée, charbon de bois, polystyrène.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Oncidium</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oncidium</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Apports d'engrais</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils sont nécessaires pour obtenir une belle floraison et se font au rythme d'un arrosage sur deux toute l'année avec un engrais équilibré. Vous pouvez donner un engrais de croissance (riche en azote) lorsque les nouveaux pseudo-bulbes se développent, jusqu'à ce que ceux-ci aient atteint la moitié de leur taille finale, et donner ensuite un engrais de floraison (riche en phosphore et potassium).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Oncidium</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oncidium</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Remarques</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ne jamais couper les hampes florales, elles peuvent fleurir successivement de nombreuses années.
 			Fleurs et hampe florale
 			Fleurs d'Oncidium nubigenum
 			Fleurs d'Oncidium hybride
